--- a/sup1_metadata.xlsx
+++ b/sup1_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theodore.Allnutt\Documents\d\r18_elcho\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F878EE-2D00-4F4C-B02E-F50E0178FFBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0650AB03-98A9-4977-9891-FEA2B65E3D93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="4815" windowWidth="24735" windowHeight="14970" xr2:uid="{9FB9BEEE-C774-4401-A68A-AEA47B0AA418}"/>
+    <workbookView xWindow="3690" yWindow="2670" windowWidth="28770" windowHeight="15450" xr2:uid="{9FB9BEEE-C774-4401-A68A-AEA47B0AA418}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +840,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -859,11 +870,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -875,8 +887,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{06643CB7-1E31-4E8F-8878-7A081F9E3E6E}"/>
   </cellStyles>
@@ -1193,10 +1210,14 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H101"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1220,7 +1241,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1246,7 +1267,7 @@
       <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>9225757</v>
       </c>
     </row>
@@ -1272,7 +1293,7 @@
       <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1298,7 +1319,7 @@
       <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1324,7 +1345,7 @@
       <c r="G5" s="1">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>4895276</v>
       </c>
     </row>
@@ -1350,7 +1371,7 @@
       <c r="G6" s="1">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1376,7 +1397,7 @@
       <c r="G7" s="1">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1402,7 +1423,7 @@
       <c r="G8" s="1">
         <v>8</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1428,7 +1449,7 @@
       <c r="G9" s="1">
         <v>13</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1454,7 +1475,7 @@
       <c r="G10" s="1">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1480,7 +1501,7 @@
       <c r="G11" s="1">
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1506,7 +1527,7 @@
       <c r="G12" s="1">
         <v>17</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1532,7 +1553,7 @@
       <c r="G13" s="1">
         <v>21</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>4965809</v>
       </c>
     </row>
@@ -1558,7 +1579,7 @@
       <c r="G14" s="1">
         <v>23</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1584,7 +1605,7 @@
       <c r="G15" s="1">
         <v>24</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1610,7 +1631,7 @@
       <c r="G16" s="1">
         <v>25</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1636,7 +1657,7 @@
       <c r="G17" s="1">
         <v>28</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1662,7 +1683,7 @@
       <c r="G18" s="1">
         <v>29</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="6">
         <v>7529717</v>
       </c>
     </row>
@@ -1688,7 +1709,7 @@
       <c r="G19" s="1">
         <v>35</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <v>9533042</v>
       </c>
     </row>
@@ -1714,7 +1735,7 @@
       <c r="G20" s="1">
         <v>39</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="6">
         <v>3941896</v>
       </c>
     </row>
@@ -1740,7 +1761,7 @@
       <c r="G21" s="1">
         <v>37</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1766,7 +1787,7 @@
       <c r="G22" s="1">
         <v>45</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="6">
         <v>5867160</v>
       </c>
     </row>
@@ -1792,7 +1813,7 @@
       <c r="G23" s="1">
         <v>46</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1818,7 +1839,7 @@
       <c r="G24" s="1">
         <v>50</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1844,7 +1865,7 @@
       <c r="G25" s="1">
         <v>49</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1870,7 +1891,7 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1896,7 +1917,7 @@
       <c r="G27" s="1">
         <v>4</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="6">
         <v>7833972</v>
       </c>
     </row>
@@ -1922,7 +1943,7 @@
       <c r="G28" s="1">
         <v>10</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -1948,7 +1969,7 @@
       <c r="G29" s="1">
         <v>9</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="6">
         <v>9329839</v>
       </c>
     </row>
@@ -1974,7 +1995,7 @@
       <c r="G30" s="1">
         <v>12</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2000,7 +2021,7 @@
       <c r="G31" s="1">
         <v>14</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="6">
         <v>8818046</v>
       </c>
     </row>
@@ -2026,7 +2047,7 @@
       <c r="G32" s="1">
         <v>18</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2052,7 +2073,7 @@
       <c r="G33" s="1">
         <v>20</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="6">
         <v>7998207</v>
       </c>
     </row>
@@ -2078,7 +2099,7 @@
       <c r="G34" s="1">
         <v>19</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="6">
         <v>6557360</v>
       </c>
     </row>
@@ -2104,7 +2125,7 @@
       <c r="G35" s="1">
         <v>22</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2130,7 +2151,7 @@
       <c r="G36" s="1">
         <v>26</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="6">
         <v>8843400</v>
       </c>
     </row>
@@ -2156,7 +2177,7 @@
       <c r="G37" s="1">
         <v>31</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2182,7 +2203,7 @@
       <c r="G38" s="1">
         <v>27</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2208,7 +2229,7 @@
       <c r="G39" s="1">
         <v>30</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2234,7 +2255,7 @@
       <c r="G40" s="1">
         <v>32</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="6">
         <v>9546379</v>
       </c>
     </row>
@@ -2260,7 +2281,7 @@
       <c r="G41" s="1">
         <v>33</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2286,7 +2307,7 @@
       <c r="G42" s="1">
         <v>36</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="6">
         <v>9759306</v>
       </c>
     </row>
@@ -2312,7 +2333,7 @@
       <c r="G43" s="1">
         <v>40</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="6">
         <v>9278453</v>
       </c>
     </row>
@@ -2338,7 +2359,7 @@
       <c r="G44" s="1">
         <v>38</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2364,7 +2385,7 @@
       <c r="G45" s="1">
         <v>34</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2390,7 +2411,7 @@
       <c r="G46" s="1">
         <v>41</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2416,7 +2437,7 @@
       <c r="G47" s="1">
         <v>42</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2442,7 +2463,7 @@
       <c r="G48" s="1">
         <v>43</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2468,7 +2489,7 @@
       <c r="G49" s="1">
         <v>44</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="6">
         <v>5694001</v>
       </c>
     </row>
@@ -2494,7 +2515,7 @@
       <c r="G50" s="1">
         <v>47</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2520,7 +2541,7 @@
       <c r="G51" s="1">
         <v>48</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="6">
         <v>7767000</v>
       </c>
     </row>
@@ -2546,7 +2567,7 @@
       <c r="G52" s="1">
         <v>2</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2572,7 +2593,7 @@
       <c r="G53" s="1">
         <v>3</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2598,7 +2619,7 @@
       <c r="G54" s="1">
         <v>5</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2624,7 +2645,7 @@
       <c r="G55" s="1">
         <v>6</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2650,7 +2671,7 @@
       <c r="G56" s="1">
         <v>7</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2676,7 +2697,7 @@
       <c r="G57" s="1">
         <v>8</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2702,7 +2723,7 @@
       <c r="G58" s="1">
         <v>11</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2728,7 +2749,7 @@
       <c r="G59" s="1">
         <v>13</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2754,7 +2775,7 @@
       <c r="G60" s="1">
         <v>15</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2780,7 +2801,7 @@
       <c r="G61" s="1">
         <v>16</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2806,7 +2827,7 @@
       <c r="G62" s="1">
         <v>17</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2832,7 +2853,7 @@
       <c r="G63" s="1">
         <v>21</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2858,7 +2879,7 @@
       <c r="G64" s="1">
         <v>23</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2884,7 +2905,7 @@
       <c r="G65" s="1">
         <v>24</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2910,7 +2931,7 @@
       <c r="G66" s="1">
         <v>25</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2936,7 +2957,7 @@
       <c r="G67" s="1">
         <v>28</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2962,7 +2983,7 @@
       <c r="G68" s="1">
         <v>29</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -2988,7 +3009,7 @@
       <c r="G69" s="1">
         <v>35</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3014,7 +3035,7 @@
       <c r="G70" s="1">
         <v>37</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3040,7 +3061,7 @@
       <c r="G71" s="1">
         <v>39</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3066,7 +3087,7 @@
       <c r="G72" s="1">
         <v>45</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3092,7 +3113,7 @@
       <c r="G73" s="1">
         <v>46</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3118,7 +3139,7 @@
       <c r="G74" s="1">
         <v>49</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3144,7 +3165,7 @@
       <c r="G75" s="1">
         <v>50</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3170,7 +3191,7 @@
       <c r="G76" s="1">
         <v>1</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3196,7 +3217,7 @@
       <c r="G77" s="1">
         <v>4</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="6">
         <v>2692079</v>
       </c>
     </row>
@@ -3222,7 +3243,7 @@
       <c r="G78" s="1">
         <v>9</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3248,7 +3269,7 @@
       <c r="G79" s="1">
         <v>10</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3274,7 +3295,7 @@
       <c r="G80" s="1">
         <v>12</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3300,7 +3321,7 @@
       <c r="G81" s="1">
         <v>14</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3326,7 +3347,7 @@
       <c r="G82" s="1">
         <v>18</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3352,7 +3373,7 @@
       <c r="G83" s="1">
         <v>19</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3378,7 +3399,7 @@
       <c r="G84" s="1">
         <v>20</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3404,7 +3425,7 @@
       <c r="G85" s="1">
         <v>22</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3430,7 +3451,7 @@
       <c r="G86" s="1">
         <v>26</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3456,7 +3477,7 @@
       <c r="G87" s="1">
         <v>27</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3482,7 +3503,7 @@
       <c r="G88" s="1">
         <v>30</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3508,7 +3529,7 @@
       <c r="G89" s="1">
         <v>31</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3534,7 +3555,7 @@
       <c r="G90" s="1">
         <v>32</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3560,7 +3581,7 @@
       <c r="G91" s="1">
         <v>33</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="6">
         <v>569816</v>
       </c>
     </row>
@@ -3586,7 +3607,7 @@
       <c r="G92" s="1">
         <v>34</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3612,7 +3633,7 @@
       <c r="G93" s="1">
         <v>36</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3638,7 +3659,7 @@
       <c r="G94" s="1">
         <v>38</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3664,7 +3685,7 @@
       <c r="G95" s="1">
         <v>40</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3690,7 +3711,7 @@
       <c r="G96" s="1">
         <v>41</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3716,7 +3737,7 @@
       <c r="G97" s="1">
         <v>42</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3742,7 +3763,7 @@
       <c r="G98" s="1">
         <v>43</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3768,7 +3789,7 @@
       <c r="G99" s="1">
         <v>44</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3794,7 +3815,7 @@
       <c r="G100" s="1">
         <v>47</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="6">
         <v>10000000</v>
       </c>
     </row>
@@ -3820,7 +3841,7 @@
       <c r="G101" s="1">
         <v>48</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="6">
         <v>10000000</v>
       </c>
     </row>
